--- a/public/result-sub.xlsx
+++ b/public/result-sub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Root\Desktop\SEAL-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B713DCF-8E56-44E7-A9E3-2B041546EE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585D5B5-7061-453B-BBC4-390A556CAC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5D0819B-50DA-41D4-BB49-98D2805CBD08}"/>
+    <workbookView xWindow="5955" yWindow="2205" windowWidth="16200" windowHeight="11475" xr2:uid="{D5D0819B-50DA-41D4-BB49-98D2805CBD08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="431">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,12 +73,6 @@
     <t>애플의 팀 쿡</t>
   </si>
   <si>
-    <t>골드만삭스의 팀 협력 강화</t>
-  </si>
-  <si>
-    <t>골드만삭스는 글로벌 금융 시장에서 경쟁력을 유지하기 위해 다양한 부서 간의 협력을 강화했습니다. 촉진자는 각 부서의 전략 회의에서 중재 역할을 수행하여, 부서 간의 갈등을 해결하고 상호 이해를 증진시켰습니다. 특히, 복잡한 금융 상품 개발 프로젝트에서 촉진자는 팀원들의 의견을 조율하고, 모든 참여자가 목표를 명확히 이해하도록 도왔습니다. 이러한 협력적 접근은 골드만삭스가 고객에게 더욱 혁신적인 금융 솔루션을 제공하는 데 기여했습니다.</t>
-  </si>
-  <si>
     <t>강점-실제사례1 제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,12 +652,6 @@
     <t>토요타는 1970년대부터 토요타 생산 시스템(TPS)을 도입하여 생산 공정의 안정성과 품질 관리를 강화했습니다. TPS는 지속적인 개선과 책임감을 중시하는 철학을 바탕으로 한 생산 방식으로, 전 세계적으로 높은 평가를 받았습니다. 생산 과정에서 발생하는 낭비를 최소화하고, 품질을 유지하며, 고객의 요구에 신속히 대응할 수 있도록 설계되었습니다. 각 생산 라인은 문제를 발견하면 즉시 멈추고 해결하는 자율성을 부여받았으며, 이는 제품의 신뢰성을 높이고 고객 만족도를 증대시켰습니다. 이러한 시스템은 글로벌 자동차 산업의 표준으로 자리 잡았으며, 토요타를 세계적인 경쟁력을 갖춘 자동차 제조업체로 성장시키는 데 중요한 역할을 했습니다.</t>
   </si>
   <si>
-    <t>존슨 앤드 존슨의 타이레놀 위기 관리</t>
-  </si>
-  <si>
-    <t>1982년, 존슨 앤드 존슨은 타이레놀 약품에 대한 독극물 테러 사건을 겪었습니다. 이 사건으로 인해 소비자 신뢰가 심각하게 훼손될 위기에 처했습니다. 그러나 존슨 앤드 존슨은 즉각적으로 전 제품을 리콜하고, 소비자의 안전을 최우선으로 고려하는 조치를 취했습니다. 이러한 책임감 있는 행동은 소비자의 신뢰를 회복하고, 기업의 명성을 보호하는 데 기여했습니다. 이후 회사는 제품의 포장과 안전성을 강화하는 혁신적인 방식을 도입하여, 재발을 방지하였습니다. 이 사례는 기업이 위기 상황에서 어떻게 책임감 있게 대응해야 하는지를 잘 보여줍니다.</t>
-  </si>
-  <si>
     <t>변화 저항: 변화에 대한 저항감이 강해 새로운 시도에 소극적일 수 있습니다. 이는 조직의 혁신을 저해할 수 있습니다.</t>
   </si>
   <si>
@@ -744,12 +732,6 @@
   </si>
   <si>
     <t>보잉은 1990년대 초반 777 모델 개발에 착수하며, 세계 최초로 컴퓨터를 활용한 디지털 설계 및 시뮬레이션을 도입했습니다. 이 프로젝트는 시장에서의 경쟁력을 확보하고자 기존 항공기보다 효율적이고 고객 맞춤형의 새로운 기종을 개발하는 것을 목표로 했습니다. 보잉의 설계자들은 고객의 요구 사항을 반영하여 맞춤형 설계를 진행했고, 설계 과정에서 컴퓨터 기반의 시뮬레이션을 통해 설계 오류를 사전에 발견하고 수정할 수 있었습니다. 이러한 체계적인 접근은 개발 기간을 단축하고, 비용을 절감하며 항공기 품질을 높이는 데 기여했습니다. 보잉 777은 성공적으로 시장에 출시되어 항공사들로부터 높은 평가를 받았으며, 이는 보잉의 설계 능력을 전 세계에 입증하는 계기가 되었습니다.</t>
-  </si>
-  <si>
-    <t>포드의 린 생산 시스템 도입</t>
-  </si>
-  <si>
-    <t>포드는 자동차 생산의 효율성을 높이기 위해 린 생산 시스템을 도입했습니다. 설계자는 생산 공정의 각 단계를 면밀히 분석하고, 낭비를 줄이기 위한 계획을 수립했습니다. 이를 통해 포드는 생산 비용을 절감하고, 품질을 향상시킬 수 있었습니다. 린 생산 시스템의 도입은 포드가 글로벌 자동차 시장에서 경쟁력을 유지하는 데 중요한 역할을 했습니다. 이 사례는 체계적인 계획과 실행이 기업의 경쟁력 강화에 어떻게 기여하는지를 보여줍니다.</t>
   </si>
   <si>
     <t>융통성 부족: 계획에 지나치게 집착하여 변화에 적응하기 어려울 수 있습니다. 이는 예기치 못한 상황에서 대응력을 저하시킬 수 있습니다.</t>
@@ -1775,14 +1757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D779F87-BC4A-49E4-8BA7-CCD22CF913D5}">
-  <dimension ref="A1:N217"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.625"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="92.375" customWidth="1"/>
@@ -1795,22 +1778,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -1827,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1838,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1852,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1866,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1880,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1894,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1908,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1922,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1942,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1950,13 +1933,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1964,13 +1947,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>421</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1978,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1992,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2006,13 +1989,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2020,13 +2003,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,10 +2014,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="D17" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2045,77 +2028,77 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D19" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>422</v>
+        <v>412</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
@@ -2123,10 +2106,10 @@
     </row>
     <row r="24" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -2137,10 +2120,10 @@
     </row>
     <row r="25" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -2151,69 +2134,69 @@
     </row>
     <row r="26" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2221,10 +2204,10 @@
     </row>
     <row r="31" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -2235,10 +2218,10 @@
     </row>
     <row r="32" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -2249,88 +2232,88 @@
     </row>
     <row r="33" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
         <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>361</v>
+      </c>
+      <c r="D35" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C36" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
-      </c>
-      <c r="D37" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
@@ -2341,10 +2324,10 @@
     </row>
     <row r="40" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -2355,10 +2338,10 @@
     </row>
     <row r="41" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
         <v>77</v>
@@ -2369,10 +2352,10 @@
     </row>
     <row r="42" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>79</v>
@@ -2383,55 +2366,55 @@
     </row>
     <row r="43" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
         <v>88</v>
@@ -2439,10 +2422,10 @@
     </row>
     <row r="47" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -2453,10 +2436,10 @@
     </row>
     <row r="48" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
         <v>91</v>
@@ -2467,10 +2450,10 @@
     </row>
     <row r="49" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
@@ -2481,10 +2464,10 @@
     </row>
     <row r="50" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>95</v>
@@ -2495,10 +2478,10 @@
     </row>
     <row r="51" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
         <v>97</v>
@@ -2509,74 +2492,74 @@
     </row>
     <row r="52" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>366</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C54" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>374</v>
-      </c>
-      <c r="D55" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
         <v>101</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
         <v>102</v>
@@ -2587,10 +2570,10 @@
     </row>
     <row r="58" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
         <v>104</v>
@@ -2601,10 +2584,10 @@
     </row>
     <row r="59" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
         <v>106</v>
@@ -2615,10 +2598,10 @@
     </row>
     <row r="60" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>108</v>
@@ -2629,10 +2612,10 @@
     </row>
     <row r="61" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>110</v>
@@ -2643,10 +2626,10 @@
     </row>
     <row r="62" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>112</v>
@@ -2657,10 +2640,10 @@
     </row>
     <row r="63" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
         <v>114</v>
@@ -2671,7 +2654,7 @@
     </row>
     <row r="64" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -2685,10 +2668,10 @@
     </row>
     <row r="65" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>118</v>
@@ -2699,10 +2682,10 @@
     </row>
     <row r="66" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
@@ -2713,10 +2696,10 @@
     </row>
     <row r="67" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
         <v>122</v>
@@ -2727,10 +2710,10 @@
     </row>
     <row r="68" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
         <v>124</v>
@@ -2741,10 +2724,10 @@
     </row>
     <row r="69" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
         <v>126</v>
@@ -2755,74 +2738,74 @@
     </row>
     <row r="70" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>370</v>
+      </c>
+      <c r="D71" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C72" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
-      </c>
-      <c r="D73" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
         <v>131</v>
-      </c>
-      <c r="B74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
         <v>132</v>
@@ -2833,10 +2816,10 @@
     </row>
     <row r="76" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
         <v>134</v>
@@ -2847,10 +2830,10 @@
     </row>
     <row r="77" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
         <v>136</v>
@@ -2861,10 +2844,10 @@
     </row>
     <row r="78" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
         <v>138</v>
@@ -2875,10 +2858,10 @@
     </row>
     <row r="79" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
         <v>140</v>
@@ -2889,10 +2872,10 @@
     </row>
     <row r="80" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
         <v>142</v>
@@ -2903,10 +2886,10 @@
     </row>
     <row r="81" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
         <v>144</v>
@@ -2917,7 +2900,7 @@
     </row>
     <row r="82" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
         <v>36</v>
@@ -2931,10 +2914,10 @@
     </row>
     <row r="83" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
         <v>148</v>
@@ -2945,10 +2928,10 @@
     </row>
     <row r="84" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
         <v>150</v>
@@ -2959,10 +2942,10 @@
     </row>
     <row r="85" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
         <v>152</v>
@@ -2973,10 +2956,10 @@
     </row>
     <row r="86" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
         <v>154</v>
@@ -2987,10 +2970,10 @@
     </row>
     <row r="87" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
         <v>156</v>
@@ -3001,102 +2984,102 @@
     </row>
     <row r="88" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
-      </c>
-      <c r="D88" t="s">
-        <v>159</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="C89" t="s">
-        <v>380</v>
+        <v>375</v>
+      </c>
+      <c r="D89" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C90" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D90" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>383</v>
-      </c>
-      <c r="D91" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" t="s">
         <v>161</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
         <v>162</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" t="s">
         <v>164</v>
-      </c>
-      <c r="D94" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
         <v>165</v>
@@ -3107,10 +3090,10 @@
     </row>
     <row r="96" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
         <v>167</v>
@@ -3121,10 +3104,10 @@
     </row>
     <row r="97" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
         <v>169</v>
@@ -3135,10 +3118,10 @@
     </row>
     <row r="98" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
         <v>171</v>
@@ -3149,10 +3132,10 @@
     </row>
     <row r="99" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
         <v>173</v>
@@ -3163,7 +3146,7 @@
     </row>
     <row r="100" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
         <v>36</v>
@@ -3177,10 +3160,10 @@
     </row>
     <row r="101" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
         <v>177</v>
@@ -3191,10 +3174,10 @@
     </row>
     <row r="102" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C102" t="s">
         <v>179</v>
@@ -3205,10 +3188,10 @@
     </row>
     <row r="103" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
         <v>181</v>
@@ -3219,27 +3202,27 @@
     </row>
     <row r="104" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" t="s">
         <v>183</v>
-      </c>
-      <c r="D104" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D105" t="s">
         <v>185</v>
@@ -3247,74 +3230,74 @@
     </row>
     <row r="106" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
-      </c>
-      <c r="D106" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="C107" t="s">
-        <v>130</v>
+        <v>379</v>
+      </c>
+      <c r="D107" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B108" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D108" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>387</v>
-      </c>
-      <c r="D109" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>187</v>
+      </c>
+      <c r="D110" t="s">
         <v>188</v>
-      </c>
-      <c r="B110" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
         <v>189</v>
@@ -3325,10 +3308,10 @@
     </row>
     <row r="112" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
         <v>191</v>
@@ -3339,10 +3322,10 @@
     </row>
     <row r="113" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>193</v>
@@ -3353,10 +3336,10 @@
     </row>
     <row r="114" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
         <v>195</v>
@@ -3367,10 +3350,10 @@
     </row>
     <row r="115" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
         <v>197</v>
@@ -3381,10 +3364,10 @@
     </row>
     <row r="116" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C116" t="s">
         <v>199</v>
@@ -3395,7 +3378,7 @@
     </row>
     <row r="117" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B117" t="s">
         <v>36</v>
@@ -3409,7 +3392,7 @@
     </row>
     <row r="118" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
         <v>36</v>
@@ -3423,10 +3406,10 @@
     </row>
     <row r="119" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
         <v>205</v>
@@ -3437,7 +3420,7 @@
     </row>
     <row r="120" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
         <v>38</v>
@@ -3451,7 +3434,7 @@
     </row>
     <row r="121" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
         <v>39</v>
@@ -3465,7 +3448,7 @@
     </row>
     <row r="122" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
         <v>40</v>
@@ -3479,88 +3462,88 @@
     </row>
     <row r="123" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s">
         <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
-      </c>
-      <c r="D123" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>429</v>
       </c>
       <c r="C124" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>430</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>385</v>
+      </c>
+      <c r="D125" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
-        <v>435</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>389</v>
-      </c>
-      <c r="D126" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>391</v>
+        <v>214</v>
       </c>
       <c r="D127" t="s">
-        <v>392</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>216</v>
+      </c>
+      <c r="D128" t="s">
         <v>217</v>
-      </c>
-      <c r="B128" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
         <v>218</v>
@@ -3571,10 +3554,10 @@
     </row>
     <row r="130" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
         <v>220</v>
@@ -3585,7 +3568,7 @@
     </row>
     <row r="131" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B131" t="s">
         <v>34</v>
@@ -3599,55 +3582,55 @@
     </row>
     <row r="132" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D132" t="s">
         <v>224</v>
-      </c>
-      <c r="D132" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C133" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" t="s">
         <v>226</v>
-      </c>
-      <c r="D133" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
         <v>36</v>
       </c>
       <c r="C134" t="s">
+        <v>227</v>
+      </c>
+      <c r="D134" t="s">
         <v>228</v>
-      </c>
-      <c r="D134" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
         <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="D135" t="s">
         <v>230</v>
@@ -3655,10 +3638,10 @@
     </row>
     <row r="136" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
         <v>231</v>
@@ -3669,7 +3652,7 @@
     </row>
     <row r="137" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
         <v>38</v>
@@ -3683,10 +3666,10 @@
     </row>
     <row r="138" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
         <v>235</v>
@@ -3697,10 +3680,10 @@
     </row>
     <row r="139" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
         <v>237</v>
@@ -3711,99 +3694,99 @@
     </row>
     <row r="140" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>239</v>
-      </c>
-      <c r="D140" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>430</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>390</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C143" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B144" t="s">
-        <v>435</v>
+        <v>33</v>
       </c>
       <c r="C144" t="s">
-        <v>394</v>
+        <v>241</v>
       </c>
       <c r="D144" t="s">
-        <v>395</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B145" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
-        <v>396</v>
+        <v>243</v>
       </c>
       <c r="D145" t="s">
-        <v>397</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>240</v>
+      </c>
+      <c r="B146" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" t="s">
+        <v>245</v>
+      </c>
+      <c r="D146" t="s">
         <v>246</v>
-      </c>
-      <c r="B146" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B147" t="s">
         <v>35</v>
@@ -3817,10 +3800,10 @@
     </row>
     <row r="148" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
         <v>249</v>
@@ -3831,7 +3814,7 @@
     </row>
     <row r="149" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B149" t="s">
         <v>34</v>
@@ -3845,55 +3828,55 @@
     </row>
     <row r="150" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C150" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" t="s">
         <v>253</v>
-      </c>
-      <c r="D150" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C151" t="s">
+        <v>254</v>
+      </c>
+      <c r="D151" t="s">
         <v>255</v>
-      </c>
-      <c r="D151" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B152" t="s">
         <v>36</v>
       </c>
       <c r="C152" t="s">
+        <v>256</v>
+      </c>
+      <c r="D152" t="s">
         <v>257</v>
-      </c>
-      <c r="D152" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B153" t="s">
         <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
       <c r="D153" t="s">
         <v>259</v>
@@ -3901,10 +3884,10 @@
     </row>
     <row r="154" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
         <v>260</v>
@@ -3915,7 +3898,7 @@
     </row>
     <row r="155" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B155" t="s">
         <v>38</v>
@@ -3929,10 +3912,10 @@
     </row>
     <row r="156" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
         <v>264</v>
@@ -3943,10 +3926,10 @@
     </row>
     <row r="157" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C157" t="s">
         <v>266</v>
@@ -3957,99 +3940,99 @@
     </row>
     <row r="158" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C158" t="s">
-        <v>268</v>
-      </c>
-      <c r="D158" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B159" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="C159" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="D159" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>430</v>
       </c>
       <c r="C160" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="D160" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B162" t="s">
-        <v>435</v>
+        <v>33</v>
       </c>
       <c r="C162" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="D162" t="s">
-        <v>399</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="C163" t="s">
-        <v>400</v>
+        <v>271</v>
       </c>
       <c r="D163" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" t="s">
+        <v>273</v>
+      </c>
+      <c r="D164" t="s">
         <v>274</v>
-      </c>
-      <c r="B164" t="s">
-        <v>24</v>
-      </c>
-      <c r="C164" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B165" t="s">
         <v>35</v>
@@ -4063,10 +4046,10 @@
     </row>
     <row r="166" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
         <v>277</v>
@@ -4077,7 +4060,7 @@
     </row>
     <row r="167" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B167" t="s">
         <v>34</v>
@@ -4091,10 +4074,10 @@
     </row>
     <row r="168" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C168" t="s">
         <v>281</v>
@@ -4105,10 +4088,10 @@
     </row>
     <row r="169" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C169" t="s">
         <v>283</v>
@@ -4119,7 +4102,7 @@
     </row>
     <row r="170" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B170" t="s">
         <v>36</v>
@@ -4133,7 +4116,7 @@
     </row>
     <row r="171" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s">
         <v>36</v>
@@ -4147,10 +4130,10 @@
     </row>
     <row r="172" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C172" t="s">
         <v>289</v>
@@ -4161,7 +4144,7 @@
     </row>
     <row r="173" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B173" t="s">
         <v>38</v>
@@ -4175,127 +4158,127 @@
     </row>
     <row r="174" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C174" t="s">
+        <v>296</v>
+      </c>
+      <c r="D174" t="s">
         <v>293</v>
-      </c>
-      <c r="D174" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C175" t="s">
+        <v>294</v>
+      </c>
+      <c r="D175" t="s">
         <v>295</v>
-      </c>
-      <c r="D175" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>297</v>
-      </c>
-      <c r="D176" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B177" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="C177" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="D177" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>430</v>
       </c>
       <c r="C178" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="D178" t="s">
-        <v>301</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C179" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="B180" t="s">
-        <v>435</v>
+        <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>402</v>
+        <v>298</v>
       </c>
       <c r="D180" t="s">
-        <v>403</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="B181" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="C181" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
       <c r="D181" t="s">
-        <v>405</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>297</v>
+      </c>
+      <c r="B182" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" t="s">
+        <v>302</v>
+      </c>
+      <c r="D182" t="s">
         <v>303</v>
-      </c>
-      <c r="B182" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B183" t="s">
         <v>35</v>
@@ -4309,10 +4292,10 @@
     </row>
     <row r="184" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C184" t="s">
         <v>306</v>
@@ -4323,7 +4306,7 @@
     </row>
     <row r="185" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B185" t="s">
         <v>34</v>
@@ -4337,10 +4320,10 @@
     </row>
     <row r="186" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C186" t="s">
         <v>310</v>
@@ -4351,10 +4334,10 @@
     </row>
     <row r="187" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B187" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C187" t="s">
         <v>312</v>
@@ -4365,7 +4348,7 @@
     </row>
     <row r="188" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>36</v>
@@ -4379,7 +4362,7 @@
     </row>
     <row r="189" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B189" t="s">
         <v>36</v>
@@ -4393,10 +4376,10 @@
     </row>
     <row r="190" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C190" t="s">
         <v>318</v>
@@ -4407,7 +4390,7 @@
     </row>
     <row r="191" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B191" t="s">
         <v>38</v>
@@ -4421,10 +4404,10 @@
     </row>
     <row r="192" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
         <v>322</v>
@@ -4435,10 +4418,10 @@
     </row>
     <row r="193" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C193" t="s">
         <v>324</v>
@@ -4449,99 +4432,99 @@
     </row>
     <row r="194" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B194" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
-        <v>326</v>
-      </c>
-      <c r="D194" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="C195" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
       <c r="D195" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>430</v>
       </c>
       <c r="C196" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="D196" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C197" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B198" t="s">
-        <v>435</v>
+        <v>33</v>
       </c>
       <c r="C198" t="s">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="D198" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B199" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="C199" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
       <c r="D199" t="s">
-        <v>410</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>326</v>
+      </c>
+      <c r="B200" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" t="s">
+        <v>331</v>
+      </c>
+      <c r="D200" t="s">
         <v>332</v>
-      </c>
-      <c r="B200" t="s">
-        <v>24</v>
-      </c>
-      <c r="C200" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B201" t="s">
         <v>35</v>
@@ -4555,10 +4538,10 @@
     </row>
     <row r="202" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C202" t="s">
         <v>335</v>
@@ -4569,7 +4552,7 @@
     </row>
     <row r="203" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B203" t="s">
         <v>34</v>
@@ -4583,10 +4566,10 @@
     </row>
     <row r="204" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C204" t="s">
         <v>339</v>
@@ -4597,10 +4580,10 @@
     </row>
     <row r="205" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B205" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C205" t="s">
         <v>341</v>
@@ -4611,7 +4594,7 @@
     </row>
     <row r="206" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B206" t="s">
         <v>36</v>
@@ -4625,7 +4608,7 @@
     </row>
     <row r="207" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B207" t="s">
         <v>36</v>
@@ -4639,10 +4622,10 @@
     </row>
     <row r="208" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B208" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C208" t="s">
         <v>347</v>
@@ -4653,7 +4636,7 @@
     </row>
     <row r="209" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
@@ -4667,10 +4650,10 @@
     </row>
     <row r="210" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C210" t="s">
         <v>351</v>
@@ -4681,10 +4664,10 @@
     </row>
     <row r="211" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C211" t="s">
         <v>353</v>
@@ -4695,83 +4678,41 @@
     </row>
     <row r="212" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B212" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C212" t="s">
-        <v>355</v>
-      </c>
-      <c r="D212" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B213" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="C213" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="D213" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>430</v>
       </c>
       <c r="C214" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="D214" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>332</v>
-      </c>
-      <c r="B215" t="s">
-        <v>43</v>
-      </c>
-      <c r="C215" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>332</v>
-      </c>
-      <c r="B216" t="s">
-        <v>435</v>
-      </c>
-      <c r="C216" t="s">
-        <v>411</v>
-      </c>
-      <c r="D216" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>332</v>
-      </c>
-      <c r="B217" t="s">
-        <v>436</v>
-      </c>
-      <c r="C217" t="s">
-        <v>413</v>
-      </c>
-      <c r="D217" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
